--- a/biology/Botanique/Deschampsia_media/Deschampsia_media.xlsx
+++ b/biology/Botanique/Deschampsia_media/Deschampsia_media.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Canche intermédiaire
 Deschampsia media, la canche intermédiaire, est une espèce de plantes monocotylédones de la famille des Poaceae, sous-famille des Pooideae, originaire d'Eurasie.
-Cette espèce est classée comme espèce disparue (RE) dans la liste rouge de la flore vasculaire des Pays de la Loire[2] et comme espèce en danger critique d'extinction (CR) dans la Liste rouge régionale de la flore vasculaire d'Île-de-France[3]
+Cette espèce est classée comme espèce disparue (RE) dans la liste rouge de la flore vasculaire des Pays de la Loire et comme espèce en danger critique d'extinction (CR) dans la Liste rouge régionale de la flore vasculaire d'Île-de-France
 </t>
         </is>
       </c>
@@ -515,8 +527,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Synonymes
-Selon Catalogue of Life                                   (7 octobre 2017)[4] :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (7 octobre 2017) :
 Aira alpina Savi, nom. illeg.
 Aira capillaris Savi
 Aira caryophyllea Bertol., sensu auct. (nom mal appliqué)
@@ -546,8 +563,43 @@
 Deschampsia subtriflora Parl.
 Schismus gouanii Trin.
 Schismus villarsii Trin.
-Liste des sous-espèces
-Selon Flora Europea[5] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Deschampsia_media</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Deschampsia_media</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Flora Europea :
 Deschampsia media (Gouan) Roem. &amp; Schult. subsp. media
 Deschampsia media (Gouan) Roem. &amp; Schult. subsp. refracta (Lag.) Paunero</t>
         </is>
